--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Feijoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Feijoo\Desktop\ML_Assignment3_pfeijoogarcia\ML_Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE3FA7-E3B3-4E56-99DA-D4EAD1FC15DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC39C0-22E4-4F57-B950-8E384CA6542E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>One</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Five</t>
   </si>
   <si>
-    <t>K\Fold Configuration</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -63,6 +60,45 @@
   </si>
   <si>
     <t>St. Dev</t>
+  </si>
+  <si>
+    <t>Voting</t>
+  </si>
+  <si>
+    <t>Ball-Tree</t>
+  </si>
+  <si>
+    <t>Min-Max</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>z-Score</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Euclidean</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>KD-Tree</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K=3</t>
+  </si>
+  <si>
+    <t>K=20</t>
+  </si>
+  <si>
+    <t>K=70</t>
   </si>
 </sst>
 </file>
@@ -86,15 +122,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -102,20 +156,248 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -124,6 +406,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -133,6 +421,2207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="2200" b="1"/>
+              <a:t>Models</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="2200" b="1" baseline="0"/>
+              <a:t> Comparison: 5-Fold Cross-Validation Means </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="2200" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11327966314152253"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8473725141082515E-2"/>
+          <c:y val="0.13417823416402846"/>
+          <c:w val="0.66253984333829619"/>
+          <c:h val="0.7533124081139343"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ball-Tree: Euclidean [Min-Max]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0.85</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A5CCE3F-300B-4833-A326-16E524A591F0}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-CO"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$6:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87142857142857122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84285714285714253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69999999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ball-Tree: Euclidean [z-Score]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$9:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.871428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82857142857142807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56428571428571395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ball-Tree: Manhattan [Min-Max]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{57802A52-B836-40D0-8099-43100E8A6038}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-CO"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$12:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87885714285714278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83571428571428541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70599999999999974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ball-Tree: Manhattan [z-Score]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$15:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81428571428571384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84285714285714231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63571428571428545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>KD-Tree: Euclidean [Min-Max]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="7030A0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>0.85</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7ADE1DC6-5872-40DF-A96F-89137BCF9026}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-CO"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$18:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87142857142857122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84285714285714253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69999999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>KD-Tree: Euclidean [z-Score]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$21:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85714285714285676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83571428571428519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59285714285714242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>KD-Tree: Manhattan [Min-Max]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="88900">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="16000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="76200" dir="5400000" sx="46000" sy="46000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8245-417C-8DD4-761CA9594509}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$24:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87857142857142834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83571428571428541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70714285714285674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>KD-Tree: Manhattan [z-Score]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$27:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K=3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K=20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K=70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84999999999999942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83571428571428519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64999999999999969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8245-417C-8DD4-761CA9594509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="584616920"/>
+        <c:axId val="584626760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="584616920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584626760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584626760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1400" b="1"/>
+                  <a:t>5-Fold</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1400" b="1" baseline="0"/>
+                  <a:t> Cross-Validation: Model Mean Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584616920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74422175663714552"/>
+          <c:y val="0.25814572791803087"/>
+          <c:w val="0.24278279177091167"/>
+          <c:h val="0.55269457297219282"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41801E0-890B-4EE5-8663-ED58424EB35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9220200" y="739140"/>
+          <a:ext cx="7818120" cy="4434840"/>
+          <a:chOff x="9220200" y="739140"/>
+          <a:chExt cx="7818120" cy="4434840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468C2143-BF04-4568-9260-3E66BF0C8DDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="9220200" y="739140"/>
+          <a:ext cx="7818120" cy="4434840"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ECAFA7-85BA-4FEC-9BCC-3266F18ABC3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15072990" y="1588585"/>
+            <a:ext cx="775982" cy="311496"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Models:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,159 +2887,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E5:N8"/>
+  <dimension ref="D4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
+    <row r="4" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10">
         <v>0.96428571428571397</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="11">
         <v>0.82142857142857095</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="11">
         <v>0.85714285714285698</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="11">
         <v>0.85714285714285698</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="12">
         <v>0.85714285714285698</v>
       </c>
-      <c r="K6" s="4">
-        <f>AVERAGE(F6:J6)</f>
+      <c r="M6" s="13">
         <v>0.87142857142857122</v>
       </c>
-      <c r="L6" s="4">
-        <f>MIN(F6:J6)</f>
+      <c r="N6" s="11">
         <v>0.82142857142857095</v>
       </c>
-      <c r="M6" s="4">
-        <f>MAX(F6:J6)</f>
+      <c r="O6" s="13">
         <v>0.96428571428571397</v>
       </c>
-      <c r="N6" s="4">
-        <f>STDEV(F6:J6)</f>
+      <c r="P6" s="12">
         <v>5.4163396028939652E-2</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E7" s="1">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="20">
         <v>0.92857142857142805</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="21">
         <v>0.85714285714285698</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="21">
         <v>0.78571428571428503</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="21">
         <v>0.78571428571428503</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="22">
         <v>0.85714285714285698</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" ref="K7:K8" si="0">AVERAGE(F7:J7)</f>
+      <c r="M7" s="23">
         <v>0.84285714285714253</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" ref="L7:L8" si="1">MIN(F7:J7)</f>
+      <c r="N7" s="21">
         <v>0.78571428571428503</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" ref="M7:M8" si="2">MAX(F7:J7)</f>
+      <c r="O7" s="23">
         <v>0.92857142857142805</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" ref="N7:N8" si="3">STDEV(F7:J7)</f>
+      <c r="P7" s="22">
         <v>5.9761430466719799E-2</v>
       </c>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
-      <c r="F8" s="4">
+    <row r="8" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="15">
         <v>0.5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="16">
         <v>0.57142857142857095</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="16">
         <v>0.75</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="16">
         <v>0.82142857142857095</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="17">
         <v>0.85714285714285698</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
+      <c r="M8" s="18">
         <v>0.69999999999999984</v>
       </c>
-      <c r="L8" s="4">
-        <f t="shared" si="1"/>
+      <c r="N8" s="16">
         <v>0.5</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="2"/>
+      <c r="O8" s="18">
         <v>0.85714285714285698</v>
       </c>
-      <c r="N8" s="4">
-        <f t="shared" si="3"/>
+      <c r="P8" s="17">
         <v>0.15689916168920598</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.871428571428571</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P9" s="12">
+        <v>5.9761430466719695E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.82857142857142807</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="P10" s="22">
+        <v>1.597191412499864E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0.56428571428571395</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0.15649215928719018</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.87885714285714278</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3.1774074915482571E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0.83571428571428541</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P13" s="22">
+        <v>6.9619959605778228E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.70599999999999974</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0.15983537449130458</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0.81428571428571384</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P15" s="12">
+        <v>7.7426726388138523E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="M16" s="23">
+        <v>0.84285714285714231</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="O16" s="23">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P16" s="22">
+        <v>8.2220460237295151E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0.63571428571428545</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="P17" s="17">
+        <v>7.7426726388138231E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.87142857142857122</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="P18" s="12">
+        <v>5.4163396028939652E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M19" s="23">
+        <v>0.84285714285714253</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="O19" s="23">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P19" s="22">
+        <v>5.9761430466719799E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0.15689916168920598</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0.85714285714285676</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P21" s="12">
+        <v>7.5761440841415617E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="M22" s="23">
+        <v>0.83571428571428519</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="P22" s="22">
+        <v>5.9761430466719334E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0.53571428571428503</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0.59285714285714242</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0.20916500663351864</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.87857142857142834</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P24" s="12">
+        <v>3.1943828249996774E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M25" s="23">
+        <v>0.83571428571428541</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P25" s="22">
+        <v>6.9619959605778228E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0.70714285714285674</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="P26" s="17">
+        <v>0.16051575038745916</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0.84999999999999942</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="P27" s="12">
+        <v>7.3192505471140049E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L28" s="22">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0.83571428571428519</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="P28" s="22">
+        <v>4.7915742374995567E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0.64999999999999969</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="P29" s="17">
+        <v>0.16444092047459002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D6:D17"/>
+    <mergeCell ref="D18:D29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>